--- a/teaching/traditional_assets/database/data/philippines/philippines_information_services.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_information_services.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00449</v>
+        <v>-0.07706499999999999</v>
       </c>
       <c r="G2">
-        <v>0.04821656050955414</v>
+        <v>-0.1033419023136247</v>
       </c>
       <c r="H2">
-        <v>0.04821656050955414</v>
+        <v>-0.1033419023136247</v>
       </c>
       <c r="I2">
-        <v>-0.0432094952002029</v>
+        <v>-0.1366867869121763</v>
       </c>
       <c r="J2">
-        <v>-0.0432094952002029</v>
+        <v>-0.1366867869121763</v>
       </c>
       <c r="K2">
-        <v>-0.67</v>
+        <v>-1.286</v>
       </c>
       <c r="L2">
-        <v>-0.04267515923566879</v>
+        <v>-0.08264781491002571</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>21.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V2">
-        <v>1.535714285714286</v>
+        <v>1.319604612850082</v>
       </c>
       <c r="W2">
-        <v>-0.02596899224806202</v>
+        <v>-0.02058829642948082</v>
       </c>
       <c r="X2">
-        <v>0.1811569034827464</v>
+        <v>0.11873807982155</v>
       </c>
       <c r="Y2">
-        <v>-0.2071258957308084</v>
+        <v>-0.1393263762510309</v>
       </c>
       <c r="Z2">
-        <v>0.743654823013994</v>
+        <v>0.4619097793408733</v>
       </c>
       <c r="AA2">
-        <v>-0.03213294950563091</v>
+        <v>-0.1167696857820146</v>
       </c>
       <c r="AB2">
-        <v>0.09091140922348312</v>
+        <v>0.08449761883959862</v>
       </c>
       <c r="AC2">
-        <v>-0.123044358729114</v>
+        <v>-0.2012673046216132</v>
       </c>
       <c r="AD2">
-        <v>22.1</v>
+        <v>26.351</v>
       </c>
       <c r="AE2">
-        <v>1.661945373215928</v>
+        <v>2.084232021767317</v>
       </c>
       <c r="AF2">
-        <v>23.76194537321593</v>
+        <v>28.43523202176732</v>
       </c>
       <c r="AG2">
-        <v>2.26194537321593</v>
+        <v>-51.66476797823267</v>
       </c>
       <c r="AH2">
-        <v>0.6292563886306021</v>
+        <v>0.3190122623433939</v>
       </c>
       <c r="AI2">
-        <v>0.4784739138719163</v>
+        <v>0.2188415842210042</v>
       </c>
       <c r="AJ2">
-        <v>0.1390943900808721</v>
+        <v>-5.718145129396121</v>
       </c>
       <c r="AK2">
-        <v>0.08031921599305443</v>
+        <v>-1.036711697372378</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="AM2">
-        <v>-0.324</v>
+        <v>-1.747</v>
       </c>
       <c r="AN2">
-        <v>-208.4905660377359</v>
+        <v>-51.466796875</v>
+      </c>
+      <c r="AO2">
+        <v>-46.03448275862069</v>
       </c>
       <c r="AP2">
-        <v>-21.33910729448991</v>
+        <v>100.9077499574857</v>
       </c>
       <c r="AQ2">
-        <v>3.888888888888889</v>
+        <v>1.528334287349743</v>
       </c>
     </row>
     <row r="3">
@@ -716,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00449</v>
+        <v>0.0008699999999999999</v>
       </c>
       <c r="G3">
-        <v>0.04821656050955414</v>
+        <v>-0.00965034965034965</v>
       </c>
       <c r="H3">
-        <v>0.04821656050955414</v>
+        <v>-0.00965034965034965</v>
       </c>
       <c r="I3">
-        <v>-0.0432094952002029</v>
+        <v>-0.03981815568285457</v>
       </c>
       <c r="J3">
-        <v>-0.0432094952002029</v>
+        <v>-0.03981815568285457</v>
       </c>
       <c r="K3">
-        <v>-0.67</v>
+        <v>-0.949</v>
       </c>
       <c r="L3">
-        <v>-0.04267515923566879</v>
+        <v>-0.06636363636363636</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,70 +761,201 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="V3">
-        <v>1.535714285714286</v>
+        <v>1.018691588785047</v>
       </c>
       <c r="W3">
-        <v>-0.02596899224806202</v>
+        <v>-0.03664092664092664</v>
       </c>
       <c r="X3">
-        <v>0.1811569034827464</v>
+        <v>0.1525200923228871</v>
       </c>
       <c r="Y3">
-        <v>-0.2071258957308084</v>
+        <v>-0.1891610189638137</v>
       </c>
       <c r="Z3">
-        <v>0.743654823013994</v>
+        <v>0.5429624108524423</v>
       </c>
       <c r="AA3">
-        <v>-0.03213294950563091</v>
+        <v>-0.02161976180526059</v>
       </c>
       <c r="AB3">
-        <v>0.09091140922348312</v>
+        <v>0.08477018166860331</v>
       </c>
       <c r="AC3">
-        <v>-0.123044358729114</v>
+        <v>-0.1063899434738639</v>
       </c>
       <c r="AD3">
-        <v>22.1</v>
+        <v>25.8</v>
       </c>
       <c r="AE3">
-        <v>1.661945373215928</v>
+        <v>2.076998131324101</v>
       </c>
       <c r="AF3">
-        <v>23.76194537321593</v>
+        <v>27.8769981313241</v>
       </c>
       <c r="AG3">
-        <v>2.26194537321593</v>
+        <v>6.0769981313241</v>
       </c>
       <c r="AH3">
-        <v>0.6292563886306021</v>
+        <v>0.5657202992972784</v>
       </c>
       <c r="AI3">
-        <v>0.4784739138719163</v>
+        <v>0.5155056511018933</v>
       </c>
       <c r="AJ3">
-        <v>0.1390943900808721</v>
+        <v>0.2211667410784678</v>
       </c>
       <c r="AK3">
-        <v>0.08031921599305443</v>
+        <v>0.1882764347105287</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="AM3">
-        <v>-0.324</v>
+        <v>-0.278</v>
       </c>
       <c r="AN3">
-        <v>-208.4905660377359</v>
+        <v>27.04402515723271</v>
+      </c>
+      <c r="AO3">
+        <v>-23.61702127659575</v>
       </c>
       <c r="AP3">
-        <v>-21.33910729448991</v>
+        <v>6.370019005580818</v>
       </c>
       <c r="AQ3">
-        <v>3.888888888888889</v>
+        <v>3.992805755395683</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paxys, Inc. (PSE:PAX)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Information Services</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.155</v>
+      </c>
+      <c r="G4">
+        <v>-1.166666666666667</v>
+      </c>
+      <c r="H4">
+        <v>-1.166666666666667</v>
+      </c>
+      <c r="I4">
+        <v>-1.236068871498923</v>
+      </c>
+      <c r="J4">
+        <v>-1.236068871498923</v>
+      </c>
+      <c r="K4">
+        <v>-0.337</v>
+      </c>
+      <c r="L4">
+        <v>-0.2674603174603175</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>58.3</v>
+      </c>
+      <c r="V4">
+        <v>1.483460559796438</v>
+      </c>
+      <c r="W4">
+        <v>-0.004535666218034994</v>
+      </c>
+      <c r="X4">
+        <v>0.08495606732021299</v>
+      </c>
+      <c r="Y4">
+        <v>-0.08949173353824799</v>
+      </c>
+      <c r="Z4">
+        <v>0.171446441735713</v>
+      </c>
+      <c r="AA4">
+        <v>-0.2119196097587686</v>
+      </c>
+      <c r="AB4">
+        <v>0.08422505601059393</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2961446657693626</v>
+      </c>
+      <c r="AD4">
+        <v>0.551</v>
+      </c>
+      <c r="AE4">
+        <v>0.00723389044321603</v>
+      </c>
+      <c r="AF4">
+        <v>0.558233890443216</v>
+      </c>
+      <c r="AG4">
+        <v>-57.74176610955678</v>
+      </c>
+      <c r="AH4">
+        <v>0.01400548483853078</v>
+      </c>
+      <c r="AI4">
+        <v>0.007358909663642242</v>
+      </c>
+      <c r="AJ4">
+        <v>3.131032340749305</v>
+      </c>
+      <c r="AK4">
+        <v>-3.288586225120573</v>
+      </c>
+      <c r="AL4">
+        <v>0.011</v>
+      </c>
+      <c r="AM4">
+        <v>-1.469</v>
+      </c>
+      <c r="AN4">
+        <v>-0.3758526603001365</v>
+      </c>
+      <c r="AO4">
+        <v>-141.8181818181818</v>
+      </c>
+      <c r="AP4">
+        <v>39.38728929710558</v>
+      </c>
+      <c r="AQ4">
+        <v>1.061946902654867</v>
       </c>
     </row>
   </sheetData>
